--- a/Data Structure  & Algorithim/DSA 450 question series.xlsx
+++ b/Data Structure  & Algorithim/DSA 450 question series.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Desktop\C++ programs\Data Structure  &amp; Algorithim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDB055C-0B02-48A3-A75B-D819D8D80E1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431BAE73-E204-4C26-90A9-5EE026490E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,7 +1632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1684,7 +1684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1886,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="B469" sqref="B469"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1899,17 +1899,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:4" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="9" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1920,12 +1920,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1936,18 +1936,18 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="C7" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1991,29 +1991,32 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="C12" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="C13" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -2057,18 +2060,21 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+      <c r="C18" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2101,29 +2107,32 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
+      <c r="C22" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="C23" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2209,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>

--- a/Data Structure  & Algorithim/DSA 450 question series.xlsx
+++ b/Data Structure  & Algorithim/DSA 450 question series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Desktop\C++ programs\base\Data Structure  &amp; Algorithim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431BAE73-E204-4C26-90A9-5EE026490E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC7846-1066-4C08-8265-5A8672FE4CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2056,8 +2056,8 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>464</v>
+      <c r="C17" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2068,7 +2068,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D18">
         <v>16</v>
